--- a/data/output/FV2304_FV2210/UTILMD/11101.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11101.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4070" uniqueCount="340">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="340">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1147,6 +1147,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U190" totalsRowShown="0">
+  <autoFilter ref="A1:U190"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1436,7 +1466,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10181,5 +10214,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11101.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11101.xlsx
@@ -2119,7 +2119,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4405,7 +4405,7 @@
         <v>315</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4609,7 +4609,7 @@
         <v>316</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4813,7 +4813,7 @@
         <v>317</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5017,7 +5017,7 @@
         <v>318</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5169,7 +5169,7 @@
         <v>319</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5549,7 +5549,7 @@
         <v>321</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5837,7 +5837,7 @@
         <v>323</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6307,7 +6307,7 @@
         <v>327</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -6985,7 +6985,7 @@
         <v>329</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7191,7 +7191,7 @@
         <v>330</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7329,7 +7329,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -7479,7 +7479,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -7629,7 +7629,7 @@
         <v>331</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -7873,7 +7873,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8117,7 +8117,7 @@
         <v>333</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8255,7 +8255,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -8797,7 +8797,7 @@
         <v>335</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9309,7 +9309,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -10103,7 +10103,7 @@
         <v>337</v>
       </c>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -10617,7 +10617,7 @@
         <v>338</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -10967,7 +10967,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -11227,7 +11227,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N188" s="2"/>
